--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D539"/>
+  <dimension ref="A1:D540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7372,617 +7372,631 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>86</v>
+        <v>494</v>
       </c>
       <c r="B496" s="2" t="n">
-        <v>44700</v>
+        <v>45301</v>
       </c>
       <c r="C496" t="n">
         <v>100</v>
       </c>
       <c r="D496" t="n">
-        <v>0.491565</v>
+        <v>0.628155</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B497" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C497" t="n">
         <v>100</v>
       </c>
       <c r="D497" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C498" t="n">
         <v>100</v>
       </c>
       <c r="D498" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C539" t="n">
+        <v>100</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B539" s="2" t="n">
+      <c r="B540" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C539" t="n">
-        <v>100</v>
-      </c>
-      <c r="D539" t="n">
+      <c r="C540" t="n">
+        <v>100</v>
+      </c>
+      <c r="D540" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D540"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7384,622 +7384,6 @@
         <v>0.628155</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B497" s="2" t="n">
-        <v>44700</v>
-      </c>
-      <c r="C497" t="n">
-        <v>100</v>
-      </c>
-      <c r="D497" t="n">
-        <v>0.491565</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B498" s="2" t="n">
-        <v>44701</v>
-      </c>
-      <c r="C498" t="n">
-        <v>100</v>
-      </c>
-      <c r="D498" t="n">
-        <v>0.486005</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B499" s="2" t="n">
-        <v>44702</v>
-      </c>
-      <c r="C499" t="n">
-        <v>100</v>
-      </c>
-      <c r="D499" t="n">
-        <v>0.460913</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B500" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="C500" t="n">
-        <v>100</v>
-      </c>
-      <c r="D500" t="n">
-        <v>0.486739</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B501" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C501" t="n">
-        <v>100</v>
-      </c>
-      <c r="D501" t="n">
-        <v>0.496752</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B502" s="2" t="n">
-        <v>44716</v>
-      </c>
-      <c r="C502" t="n">
-        <v>100</v>
-      </c>
-      <c r="D502" t="n">
-        <v>0.477322</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B503" s="2" t="n">
-        <v>44720</v>
-      </c>
-      <c r="C503" t="n">
-        <v>100</v>
-      </c>
-      <c r="D503" t="n">
-        <v>0.460988</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B504" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="C504" t="n">
-        <v>100</v>
-      </c>
-      <c r="D504" t="n">
-        <v>0.434316</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B505" s="2" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C505" t="n">
-        <v>100</v>
-      </c>
-      <c r="D505" t="n">
-        <v>0.425683</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B506" s="2" t="n">
-        <v>44737</v>
-      </c>
-      <c r="C506" t="n">
-        <v>100</v>
-      </c>
-      <c r="D506" t="n">
-        <v>0.394433</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B507" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="C507" t="n">
-        <v>100</v>
-      </c>
-      <c r="D507" t="n">
-        <v>0.375858</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B508" s="2" t="n">
-        <v>44747</v>
-      </c>
-      <c r="C508" t="n">
-        <v>100</v>
-      </c>
-      <c r="D508" t="n">
-        <v>0.408224</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B509" s="2" t="n">
-        <v>44750</v>
-      </c>
-      <c r="C509" t="n">
-        <v>100</v>
-      </c>
-      <c r="D509" t="n">
-        <v>0.465311</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>44754</v>
-      </c>
-      <c r="C510" t="n">
-        <v>100</v>
-      </c>
-      <c r="D510" t="n">
-        <v>0.449282</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B511" s="2" t="n">
-        <v>44756</v>
-      </c>
-      <c r="C511" t="n">
-        <v>100</v>
-      </c>
-      <c r="D511" t="n">
-        <v>0.426868</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B512" s="2" t="n">
-        <v>44764</v>
-      </c>
-      <c r="C512" t="n">
-        <v>100</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0.407933</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B513" s="2" t="n">
-        <v>44775</v>
-      </c>
-      <c r="C513" t="n">
-        <v>100</v>
-      </c>
-      <c r="D513" t="n">
-        <v>0.4683059999999999</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B514" s="2" t="n">
-        <v>44776</v>
-      </c>
-      <c r="C514" t="n">
-        <v>100</v>
-      </c>
-      <c r="D514" t="n">
-        <v>0.459759</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>44785</v>
-      </c>
-      <c r="C515" t="n">
-        <v>100</v>
-      </c>
-      <c r="D515" t="n">
-        <v>0.448394</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B516" s="2" t="n">
-        <v>44797</v>
-      </c>
-      <c r="C516" t="n">
-        <v>100</v>
-      </c>
-      <c r="D516" t="n">
-        <v>0.436308</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B517" s="2" t="n">
-        <v>44798</v>
-      </c>
-      <c r="C517" t="n">
-        <v>100</v>
-      </c>
-      <c r="D517" t="n">
-        <v>0.438257</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>44799</v>
-      </c>
-      <c r="C518" t="n">
-        <v>100</v>
-      </c>
-      <c r="D518" t="n">
-        <v>0.436468</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B519" s="2" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C519" t="n">
-        <v>100</v>
-      </c>
-      <c r="D519" t="n">
-        <v>0.431806</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B520" s="2" t="n">
-        <v>44812</v>
-      </c>
-      <c r="C520" t="n">
-        <v>100</v>
-      </c>
-      <c r="D520" t="n">
-        <v>0.424517</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B521" s="2" t="n">
-        <v>44824</v>
-      </c>
-      <c r="C521" t="n">
-        <v>100</v>
-      </c>
-      <c r="D521" t="n">
-        <v>0.4206839999999999</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B522" s="2" t="n">
-        <v>44826</v>
-      </c>
-      <c r="C522" t="n">
-        <v>100</v>
-      </c>
-      <c r="D522" t="n">
-        <v>0.42358</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B523" s="2" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C523" t="n">
-        <v>100</v>
-      </c>
-      <c r="D523" t="n">
-        <v>0.402739</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B524" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C524" t="n">
-        <v>100</v>
-      </c>
-      <c r="D524" t="n">
-        <v>0.382055</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>44839</v>
-      </c>
-      <c r="C525" t="n">
-        <v>100</v>
-      </c>
-      <c r="D525" t="n">
-        <v>0.406298</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B526" s="2" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C526" t="n">
-        <v>100</v>
-      </c>
-      <c r="D526" t="n">
-        <v>0.41273</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>44841</v>
-      </c>
-      <c r="C527" t="n">
-        <v>100</v>
-      </c>
-      <c r="D527" t="n">
-        <v>0.416748</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>44842</v>
-      </c>
-      <c r="C528" t="n">
-        <v>100</v>
-      </c>
-      <c r="D528" t="n">
-        <v>0.422338</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B529" s="2" t="n">
-        <v>44846</v>
-      </c>
-      <c r="C529" t="n">
-        <v>100</v>
-      </c>
-      <c r="D529" t="n">
-        <v>0.4370000000000001</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B530" s="2" t="n">
-        <v>44848</v>
-      </c>
-      <c r="C530" t="n">
-        <v>100</v>
-      </c>
-      <c r="D530" t="n">
-        <v>0.432358</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B531" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="C531" t="n">
-        <v>100</v>
-      </c>
-      <c r="D531" t="n">
-        <v>0.417633</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B532" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="C532" t="n">
-        <v>100</v>
-      </c>
-      <c r="D532" t="n">
-        <v>0.4227300000000001</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B533" s="2" t="n">
-        <v>44882</v>
-      </c>
-      <c r="C533" t="n">
-        <v>100</v>
-      </c>
-      <c r="D533" t="n">
-        <v>0.432512</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B534" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C534" t="n">
-        <v>100</v>
-      </c>
-      <c r="D534" t="n">
-        <v>0.432945</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B535" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="C535" t="n">
-        <v>100</v>
-      </c>
-      <c r="D535" t="n">
-        <v>0.427009</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C536" t="n">
-        <v>100</v>
-      </c>
-      <c r="D536" t="n">
-        <v>0.434592</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>44891</v>
-      </c>
-      <c r="C537" t="n">
-        <v>100</v>
-      </c>
-      <c r="D537" t="n">
-        <v>0.435012</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="C538" t="n">
-        <v>100</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.436876</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B539" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="C539" t="n">
-        <v>100</v>
-      </c>
-      <c r="D539" t="n">
-        <v>0.448792</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B540" s="2" t="n">
-        <v>44909</v>
-      </c>
-      <c r="C540" t="n">
-        <v>100</v>
-      </c>
-      <c r="D540" t="n">
-        <v>0.458723</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7384,6 +7384,636 @@
         <v>0.628155</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="C497" t="n">
+        <v>100</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.6180870000000001</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C498" t="n">
+        <v>100</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0.491565</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C499" t="n">
+        <v>100</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0.486005</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C500" t="n">
+        <v>100</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.460913</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C501" t="n">
+        <v>100</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.486739</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C502" t="n">
+        <v>100</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.496752</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C503" t="n">
+        <v>100</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.477322</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C504" t="n">
+        <v>100</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.460988</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="C505" t="n">
+        <v>100</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.434316</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C506" t="n">
+        <v>100</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.425683</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C507" t="n">
+        <v>100</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.394433</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C508" t="n">
+        <v>100</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.375858</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="C509" t="n">
+        <v>100</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.408224</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C510" t="n">
+        <v>100</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.465311</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C511" t="n">
+        <v>100</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.449282</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C512" t="n">
+        <v>100</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.426868</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="C513" t="n">
+        <v>100</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.407933</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C514" t="n">
+        <v>100</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.4683059999999999</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="C515" t="n">
+        <v>100</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.459759</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="C516" t="n">
+        <v>100</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.448394</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C517" t="n">
+        <v>100</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.436308</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C518" t="n">
+        <v>100</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.438257</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C519" t="n">
+        <v>100</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.436468</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C520" t="n">
+        <v>100</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.431806</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="C521" t="n">
+        <v>100</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.424517</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="C522" t="n">
+        <v>100</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.4206839999999999</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="C523" t="n">
+        <v>100</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.42358</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C524" t="n">
+        <v>100</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.402739</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C525" t="n">
+        <v>100</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.382055</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C526" t="n">
+        <v>100</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.406298</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C527" t="n">
+        <v>100</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.41273</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C528" t="n">
+        <v>100</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.416748</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C529" t="n">
+        <v>100</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.422338</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C530" t="n">
+        <v>100</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.4370000000000001</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C531" t="n">
+        <v>100</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.432358</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="C532" t="n">
+        <v>100</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.417633</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C533" t="n">
+        <v>100</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.4227300000000001</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="C534" t="n">
+        <v>100</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.432512</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C535" t="n">
+        <v>100</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.432945</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C536" t="n">
+        <v>100</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.427009</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C537" t="n">
+        <v>100</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.434592</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>44891</v>
+      </c>
+      <c r="C538" t="n">
+        <v>100</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.435012</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="C539" t="n">
+        <v>100</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.436876</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C540" t="n">
+        <v>100</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="C541" t="n">
+        <v>100</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.458723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7400,617 +7400,631 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>86</v>
+        <v>496</v>
       </c>
       <c r="B498" s="2" t="n">
-        <v>44700</v>
+        <v>45303</v>
       </c>
       <c r="C498" t="n">
         <v>100</v>
       </c>
       <c r="D498" t="n">
-        <v>0.491565</v>
+        <v>0.610058</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C541" t="n">
+        <v>100</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B541" s="2" t="n">
+      <c r="B542" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C541" t="n">
-        <v>100</v>
-      </c>
-      <c r="D541" t="n">
+      <c r="C542" t="n">
+        <v>100</v>
+      </c>
+      <c r="D542" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D542"/>
+  <dimension ref="A1:D543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7414,617 +7414,631 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>86</v>
+        <v>497</v>
       </c>
       <c r="B499" s="2" t="n">
-        <v>44700</v>
+        <v>45304</v>
       </c>
       <c r="C499" t="n">
         <v>100</v>
       </c>
       <c r="D499" t="n">
-        <v>0.491565</v>
+        <v>0.606847</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B500" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C500" t="n">
         <v>100</v>
       </c>
       <c r="D500" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B501" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C501" t="n">
         <v>100</v>
       </c>
       <c r="D501" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C542" t="n">
+        <v>100</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B542" s="2" t="n">
+      <c r="B543" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C542" t="n">
-        <v>100</v>
-      </c>
-      <c r="D542" t="n">
+      <c r="C543" t="n">
+        <v>100</v>
+      </c>
+      <c r="D543" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D543"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7426,622 +7426,6 @@
         <v>0.606847</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B500" s="2" t="n">
-        <v>44700</v>
-      </c>
-      <c r="C500" t="n">
-        <v>100</v>
-      </c>
-      <c r="D500" t="n">
-        <v>0.491565</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B501" s="2" t="n">
-        <v>44701</v>
-      </c>
-      <c r="C501" t="n">
-        <v>100</v>
-      </c>
-      <c r="D501" t="n">
-        <v>0.486005</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B502" s="2" t="n">
-        <v>44702</v>
-      </c>
-      <c r="C502" t="n">
-        <v>100</v>
-      </c>
-      <c r="D502" t="n">
-        <v>0.460913</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B503" s="2" t="n">
-        <v>44708</v>
-      </c>
-      <c r="C503" t="n">
-        <v>100</v>
-      </c>
-      <c r="D503" t="n">
-        <v>0.486739</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B504" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="C504" t="n">
-        <v>100</v>
-      </c>
-      <c r="D504" t="n">
-        <v>0.496752</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B505" s="2" t="n">
-        <v>44716</v>
-      </c>
-      <c r="C505" t="n">
-        <v>100</v>
-      </c>
-      <c r="D505" t="n">
-        <v>0.477322</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B506" s="2" t="n">
-        <v>44720</v>
-      </c>
-      <c r="C506" t="n">
-        <v>100</v>
-      </c>
-      <c r="D506" t="n">
-        <v>0.460988</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B507" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="C507" t="n">
-        <v>100</v>
-      </c>
-      <c r="D507" t="n">
-        <v>0.434316</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B508" s="2" t="n">
-        <v>44727</v>
-      </c>
-      <c r="C508" t="n">
-        <v>100</v>
-      </c>
-      <c r="D508" t="n">
-        <v>0.425683</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B509" s="2" t="n">
-        <v>44737</v>
-      </c>
-      <c r="C509" t="n">
-        <v>100</v>
-      </c>
-      <c r="D509" t="n">
-        <v>0.394433</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B510" s="2" t="n">
-        <v>44742</v>
-      </c>
-      <c r="C510" t="n">
-        <v>100</v>
-      </c>
-      <c r="D510" t="n">
-        <v>0.375858</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B511" s="2" t="n">
-        <v>44747</v>
-      </c>
-      <c r="C511" t="n">
-        <v>100</v>
-      </c>
-      <c r="D511" t="n">
-        <v>0.408224</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B512" s="2" t="n">
-        <v>44750</v>
-      </c>
-      <c r="C512" t="n">
-        <v>100</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0.465311</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B513" s="2" t="n">
-        <v>44754</v>
-      </c>
-      <c r="C513" t="n">
-        <v>100</v>
-      </c>
-      <c r="D513" t="n">
-        <v>0.449282</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B514" s="2" t="n">
-        <v>44756</v>
-      </c>
-      <c r="C514" t="n">
-        <v>100</v>
-      </c>
-      <c r="D514" t="n">
-        <v>0.426868</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B515" s="2" t="n">
-        <v>44764</v>
-      </c>
-      <c r="C515" t="n">
-        <v>100</v>
-      </c>
-      <c r="D515" t="n">
-        <v>0.407933</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B516" s="2" t="n">
-        <v>44775</v>
-      </c>
-      <c r="C516" t="n">
-        <v>100</v>
-      </c>
-      <c r="D516" t="n">
-        <v>0.4683059999999999</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B517" s="2" t="n">
-        <v>44776</v>
-      </c>
-      <c r="C517" t="n">
-        <v>100</v>
-      </c>
-      <c r="D517" t="n">
-        <v>0.459759</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B518" s="2" t="n">
-        <v>44785</v>
-      </c>
-      <c r="C518" t="n">
-        <v>100</v>
-      </c>
-      <c r="D518" t="n">
-        <v>0.448394</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B519" s="2" t="n">
-        <v>44797</v>
-      </c>
-      <c r="C519" t="n">
-        <v>100</v>
-      </c>
-      <c r="D519" t="n">
-        <v>0.436308</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B520" s="2" t="n">
-        <v>44798</v>
-      </c>
-      <c r="C520" t="n">
-        <v>100</v>
-      </c>
-      <c r="D520" t="n">
-        <v>0.438257</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B521" s="2" t="n">
-        <v>44799</v>
-      </c>
-      <c r="C521" t="n">
-        <v>100</v>
-      </c>
-      <c r="D521" t="n">
-        <v>0.436468</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B522" s="2" t="n">
-        <v>44806</v>
-      </c>
-      <c r="C522" t="n">
-        <v>100</v>
-      </c>
-      <c r="D522" t="n">
-        <v>0.431806</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B523" s="2" t="n">
-        <v>44812</v>
-      </c>
-      <c r="C523" t="n">
-        <v>100</v>
-      </c>
-      <c r="D523" t="n">
-        <v>0.424517</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B524" s="2" t="n">
-        <v>44824</v>
-      </c>
-      <c r="C524" t="n">
-        <v>100</v>
-      </c>
-      <c r="D524" t="n">
-        <v>0.4206839999999999</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B525" s="2" t="n">
-        <v>44826</v>
-      </c>
-      <c r="C525" t="n">
-        <v>100</v>
-      </c>
-      <c r="D525" t="n">
-        <v>0.42358</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B526" s="2" t="n">
-        <v>44832</v>
-      </c>
-      <c r="C526" t="n">
-        <v>100</v>
-      </c>
-      <c r="D526" t="n">
-        <v>0.402739</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B527" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C527" t="n">
-        <v>100</v>
-      </c>
-      <c r="D527" t="n">
-        <v>0.382055</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B528" s="2" t="n">
-        <v>44839</v>
-      </c>
-      <c r="C528" t="n">
-        <v>100</v>
-      </c>
-      <c r="D528" t="n">
-        <v>0.406298</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B529" s="2" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C529" t="n">
-        <v>100</v>
-      </c>
-      <c r="D529" t="n">
-        <v>0.41273</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B530" s="2" t="n">
-        <v>44841</v>
-      </c>
-      <c r="C530" t="n">
-        <v>100</v>
-      </c>
-      <c r="D530" t="n">
-        <v>0.416748</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B531" s="2" t="n">
-        <v>44842</v>
-      </c>
-      <c r="C531" t="n">
-        <v>100</v>
-      </c>
-      <c r="D531" t="n">
-        <v>0.422338</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B532" s="2" t="n">
-        <v>44846</v>
-      </c>
-      <c r="C532" t="n">
-        <v>100</v>
-      </c>
-      <c r="D532" t="n">
-        <v>0.4370000000000001</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B533" s="2" t="n">
-        <v>44848</v>
-      </c>
-      <c r="C533" t="n">
-        <v>100</v>
-      </c>
-      <c r="D533" t="n">
-        <v>0.432358</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B534" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="C534" t="n">
-        <v>100</v>
-      </c>
-      <c r="D534" t="n">
-        <v>0.417633</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B535" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="C535" t="n">
-        <v>100</v>
-      </c>
-      <c r="D535" t="n">
-        <v>0.4227300000000001</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B536" s="2" t="n">
-        <v>44882</v>
-      </c>
-      <c r="C536" t="n">
-        <v>100</v>
-      </c>
-      <c r="D536" t="n">
-        <v>0.432512</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B537" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="C537" t="n">
-        <v>100</v>
-      </c>
-      <c r="D537" t="n">
-        <v>0.432945</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B538" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="C538" t="n">
-        <v>100</v>
-      </c>
-      <c r="D538" t="n">
-        <v>0.427009</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B539" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C539" t="n">
-        <v>100</v>
-      </c>
-      <c r="D539" t="n">
-        <v>0.434592</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B540" s="2" t="n">
-        <v>44891</v>
-      </c>
-      <c r="C540" t="n">
-        <v>100</v>
-      </c>
-      <c r="D540" t="n">
-        <v>0.435012</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B541" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="C541" t="n">
-        <v>100</v>
-      </c>
-      <c r="D541" t="n">
-        <v>0.436876</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B542" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="C542" t="n">
-        <v>100</v>
-      </c>
-      <c r="D542" t="n">
-        <v>0.448792</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B543" s="2" t="n">
-        <v>44909</v>
-      </c>
-      <c r="C543" t="n">
-        <v>100</v>
-      </c>
-      <c r="D543" t="n">
-        <v>0.458723</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7426,6 +7426,650 @@
         <v>0.606847</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="C500" t="n">
+        <v>100</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0.6042540000000001</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C501" t="n">
+        <v>100</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0.6009300000000001</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="C502" t="n">
+        <v>100</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.491565</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="C503" t="n">
+        <v>100</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.486005</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="C504" t="n">
+        <v>100</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0.460913</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="C505" t="n">
+        <v>100</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0.486739</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="C506" t="n">
+        <v>100</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.496752</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="C507" t="n">
+        <v>100</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.477322</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="C508" t="n">
+        <v>100</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.460988</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="C509" t="n">
+        <v>100</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.434316</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="C510" t="n">
+        <v>100</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0.425683</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="C511" t="n">
+        <v>100</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0.394433</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="C512" t="n">
+        <v>100</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.375858</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="C513" t="n">
+        <v>100</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.408224</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="C514" t="n">
+        <v>100</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0.465311</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="C515" t="n">
+        <v>100</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0.449282</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="C516" t="n">
+        <v>100</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0.426868</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="C517" t="n">
+        <v>100</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.407933</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="C518" t="n">
+        <v>100</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.4683059999999999</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="C519" t="n">
+        <v>100</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.459759</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="C520" t="n">
+        <v>100</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.448394</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C521" t="n">
+        <v>100</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.436308</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="C522" t="n">
+        <v>100</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.438257</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="C523" t="n">
+        <v>100</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.436468</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="C524" t="n">
+        <v>100</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0.431806</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="C525" t="n">
+        <v>100</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0.424517</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="C526" t="n">
+        <v>100</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0.4206839999999999</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="C527" t="n">
+        <v>100</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.42358</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="C528" t="n">
+        <v>100</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.402739</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="C529" t="n">
+        <v>100</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0.382055</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B530" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="C530" t="n">
+        <v>100</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.406298</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B531" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C531" t="n">
+        <v>100</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.41273</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B532" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="C532" t="n">
+        <v>100</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.416748</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B533" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="C533" t="n">
+        <v>100</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.422338</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B534" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="C534" t="n">
+        <v>100</v>
+      </c>
+      <c r="D534" t="n">
+        <v>0.4370000000000001</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B535" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="C535" t="n">
+        <v>100</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0.432358</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B536" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="C536" t="n">
+        <v>100</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0.417633</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B537" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="C537" t="n">
+        <v>100</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.4227300000000001</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B538" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="C538" t="n">
+        <v>100</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.432512</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B539" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="C539" t="n">
+        <v>100</v>
+      </c>
+      <c r="D539" t="n">
+        <v>0.432945</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B540" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="C540" t="n">
+        <v>100</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0.427009</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B541" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C541" t="n">
+        <v>100</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0.434592</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B542" s="2" t="n">
+        <v>44891</v>
+      </c>
+      <c r="C542" t="n">
+        <v>100</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.435012</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B543" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="C543" t="n">
+        <v>100</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.436876</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B544" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C544" t="n">
+        <v>100</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="C545" t="n">
+        <v>100</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.458723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D545"/>
+  <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7456,617 +7456,631 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>86</v>
+        <v>500</v>
       </c>
       <c r="B502" s="2" t="n">
-        <v>44700</v>
+        <v>45309</v>
       </c>
       <c r="C502" t="n">
         <v>100</v>
       </c>
       <c r="D502" t="n">
-        <v>0.491565</v>
+        <v>0.599457</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B545" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C545" t="n">
+        <v>100</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B545" s="2" t="n">
+      <c r="B546" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C545" t="n">
-        <v>100</v>
-      </c>
-      <c r="D545" t="n">
+      <c r="C546" t="n">
+        <v>100</v>
+      </c>
+      <c r="D546" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D546"/>
+  <dimension ref="A1:D547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7470,617 +7470,631 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>86</v>
+        <v>501</v>
       </c>
       <c r="B503" s="2" t="n">
-        <v>44700</v>
+        <v>45310</v>
       </c>
       <c r="C503" t="n">
         <v>100</v>
       </c>
       <c r="D503" t="n">
-        <v>0.491565</v>
+        <v>0.5984539999999999</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B546" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C546" t="n">
+        <v>100</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B546" s="2" t="n">
+      <c r="B547" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C546" t="n">
-        <v>100</v>
-      </c>
-      <c r="D546" t="n">
+      <c r="C547" t="n">
+        <v>100</v>
+      </c>
+      <c r="D547" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D547"/>
+  <dimension ref="A1:D548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7484,617 +7484,631 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="B504" s="2" t="n">
-        <v>44700</v>
+        <v>45311</v>
       </c>
       <c r="C504" t="n">
         <v>100</v>
       </c>
       <c r="D504" t="n">
-        <v>0.491565</v>
+        <v>0.598255</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B547" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C547" t="n">
+        <v>100</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B547" s="2" t="n">
+      <c r="B548" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C547" t="n">
-        <v>100</v>
-      </c>
-      <c r="D547" t="n">
+      <c r="C548" t="n">
+        <v>100</v>
+      </c>
+      <c r="D548" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D548"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7498,617 +7498,631 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>86</v>
+        <v>503</v>
       </c>
       <c r="B505" s="2" t="n">
-        <v>44700</v>
+        <v>45314</v>
       </c>
       <c r="C505" t="n">
         <v>100</v>
       </c>
       <c r="D505" t="n">
-        <v>0.491565</v>
+        <v>0.593927</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B548" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C548" t="n">
+        <v>100</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B548" s="2" t="n">
+      <c r="B549" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C548" t="n">
-        <v>100</v>
-      </c>
-      <c r="D548" t="n">
+      <c r="C549" t="n">
+        <v>100</v>
+      </c>
+      <c r="D549" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D549"/>
+  <dimension ref="A1:D550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7512,617 +7512,631 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>86</v>
+        <v>504</v>
       </c>
       <c r="B506" s="2" t="n">
-        <v>44700</v>
+        <v>45315</v>
       </c>
       <c r="C506" t="n">
         <v>100</v>
       </c>
       <c r="D506" t="n">
-        <v>0.491565</v>
+        <v>0.5936520000000001</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B549" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C549" t="n">
+        <v>100</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B549" s="2" t="n">
+      <c r="B550" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C549" t="n">
-        <v>100</v>
-      </c>
-      <c r="D549" t="n">
+      <c r="C550" t="n">
+        <v>100</v>
+      </c>
+      <c r="D550" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D550"/>
+  <dimension ref="A1:D551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7526,617 +7526,631 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>86</v>
+        <v>505</v>
       </c>
       <c r="B507" s="2" t="n">
-        <v>44700</v>
+        <v>45316</v>
       </c>
       <c r="C507" t="n">
         <v>100</v>
       </c>
       <c r="D507" t="n">
-        <v>0.491565</v>
+        <v>0.596023</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B550" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C550" t="n">
+        <v>100</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B550" s="2" t="n">
+      <c r="B551" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C550" t="n">
-        <v>100</v>
-      </c>
-      <c r="D550" t="n">
+      <c r="C551" t="n">
+        <v>100</v>
+      </c>
+      <c r="D551" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D551"/>
+  <dimension ref="A1:D552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7540,617 +7540,631 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>86</v>
+        <v>506</v>
       </c>
       <c r="B508" s="2" t="n">
-        <v>44700</v>
+        <v>45317</v>
       </c>
       <c r="C508" t="n">
         <v>100</v>
       </c>
       <c r="D508" t="n">
-        <v>0.491565</v>
+        <v>0.600042</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B551" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C551" t="n">
+        <v>100</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B551" s="2" t="n">
+      <c r="B552" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C551" t="n">
-        <v>100</v>
-      </c>
-      <c r="D551" t="n">
+      <c r="C552" t="n">
+        <v>100</v>
+      </c>
+      <c r="D552" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D552"/>
+  <dimension ref="A1:D553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7554,617 +7554,631 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>86</v>
+        <v>507</v>
       </c>
       <c r="B509" s="2" t="n">
-        <v>44700</v>
+        <v>45318</v>
       </c>
       <c r="C509" t="n">
         <v>100</v>
       </c>
       <c r="D509" t="n">
-        <v>0.491565</v>
+        <v>0.606476</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B552" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C552" t="n">
+        <v>100</v>
+      </c>
+      <c r="D552" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B552" s="2" t="n">
+      <c r="B553" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C552" t="n">
-        <v>100</v>
-      </c>
-      <c r="D552" t="n">
+      <c r="C553" t="n">
+        <v>100</v>
+      </c>
+      <c r="D553" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D553"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7568,617 +7568,631 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>86</v>
+        <v>508</v>
       </c>
       <c r="B510" s="2" t="n">
-        <v>44700</v>
+        <v>45321</v>
       </c>
       <c r="C510" t="n">
         <v>100</v>
       </c>
       <c r="D510" t="n">
-        <v>0.491565</v>
+        <v>0.604568</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B553" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C553" t="n">
+        <v>100</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B553" s="2" t="n">
+      <c r="B554" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C553" t="n">
-        <v>100</v>
-      </c>
-      <c r="D553" t="n">
+      <c r="C554" t="n">
+        <v>100</v>
+      </c>
+      <c r="D554" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D554"/>
+  <dimension ref="A1:D555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7582,617 +7582,631 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>86</v>
+        <v>509</v>
       </c>
       <c r="B511" s="2" t="n">
-        <v>44700</v>
+        <v>45322</v>
       </c>
       <c r="C511" t="n">
         <v>100</v>
       </c>
       <c r="D511" t="n">
-        <v>0.491565</v>
+        <v>0.606087</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B554" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C554" t="n">
+        <v>100</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B554" s="2" t="n">
+      <c r="B555" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C554" t="n">
-        <v>100</v>
-      </c>
-      <c r="D554" t="n">
+      <c r="C555" t="n">
+        <v>100</v>
+      </c>
+      <c r="D555" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7596,617 +7596,631 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>86</v>
+        <v>510</v>
       </c>
       <c r="B512" s="2" t="n">
-        <v>44700</v>
+        <v>45323</v>
       </c>
       <c r="C512" t="n">
         <v>100</v>
       </c>
       <c r="D512" t="n">
-        <v>0.491565</v>
+        <v>0.607917</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B555" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C555" t="n">
+        <v>100</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B555" s="2" t="n">
+      <c r="B556" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C555" t="n">
-        <v>100</v>
-      </c>
-      <c r="D555" t="n">
+      <c r="C556" t="n">
+        <v>100</v>
+      </c>
+      <c r="D556" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D556"/>
+  <dimension ref="A1:D557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7610,617 +7610,631 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>86</v>
+        <v>511</v>
       </c>
       <c r="B513" s="2" t="n">
-        <v>44700</v>
+        <v>45324</v>
       </c>
       <c r="C513" t="n">
         <v>100</v>
       </c>
       <c r="D513" t="n">
-        <v>0.491565</v>
+        <v>0.614855</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B556" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C556" t="n">
+        <v>100</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B556" s="2" t="n">
+      <c r="B557" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C556" t="n">
-        <v>100</v>
-      </c>
-      <c r="D556" t="n">
+      <c r="C557" t="n">
+        <v>100</v>
+      </c>
+      <c r="D557" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D557"/>
+  <dimension ref="A1:D558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7624,617 +7624,631 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>86</v>
+        <v>512</v>
       </c>
       <c r="B514" s="2" t="n">
-        <v>44700</v>
+        <v>45325</v>
       </c>
       <c r="C514" t="n">
         <v>100</v>
       </c>
       <c r="D514" t="n">
-        <v>0.491565</v>
+        <v>0.619322</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B557" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C557" t="n">
+        <v>100</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B557" s="2" t="n">
+      <c r="B558" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C557" t="n">
-        <v>100</v>
-      </c>
-      <c r="D557" t="n">
+      <c r="C558" t="n">
+        <v>100</v>
+      </c>
+      <c r="D558" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D558"/>
+  <dimension ref="A1:D559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7638,617 +7638,631 @@
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>86</v>
+        <v>513</v>
       </c>
       <c r="B515" s="2" t="n">
-        <v>44700</v>
+        <v>45328</v>
       </c>
       <c r="C515" t="n">
         <v>100</v>
       </c>
       <c r="D515" t="n">
-        <v>0.491565</v>
+        <v>0.613483</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B558" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C558" t="n">
+        <v>100</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B558" s="2" t="n">
+      <c r="B559" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C558" t="n">
-        <v>100</v>
-      </c>
-      <c r="D558" t="n">
+      <c r="C559" t="n">
+        <v>100</v>
+      </c>
+      <c r="D559" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D559"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7652,617 +7652,631 @@
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>86</v>
+        <v>514</v>
       </c>
       <c r="B516" s="2" t="n">
-        <v>44700</v>
+        <v>45329</v>
       </c>
       <c r="C516" t="n">
         <v>100</v>
       </c>
       <c r="D516" t="n">
-        <v>0.491565</v>
+        <v>0.610093</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B559" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C559" t="n">
+        <v>100</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B559" s="2" t="n">
+      <c r="B560" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C559" t="n">
-        <v>100</v>
-      </c>
-      <c r="D559" t="n">
+      <c r="C560" t="n">
+        <v>100</v>
+      </c>
+      <c r="D560" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7666,617 +7666,631 @@
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>86</v>
+        <v>515</v>
       </c>
       <c r="B517" s="2" t="n">
-        <v>44700</v>
+        <v>45330</v>
       </c>
       <c r="C517" t="n">
         <v>100</v>
       </c>
       <c r="D517" t="n">
-        <v>0.491565</v>
+        <v>0.616513</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B560" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C560" t="n">
+        <v>100</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B560" s="2" t="n">
+      <c r="B561" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C560" t="n">
-        <v>100</v>
-      </c>
-      <c r="D560" t="n">
+      <c r="C561" t="n">
+        <v>100</v>
+      </c>
+      <c r="D561" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:D562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7680,617 +7680,631 @@
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>86</v>
+        <v>516</v>
       </c>
       <c r="B518" s="2" t="n">
-        <v>44700</v>
+        <v>45331</v>
       </c>
       <c r="C518" t="n">
         <v>100</v>
       </c>
       <c r="D518" t="n">
-        <v>0.491565</v>
+        <v>0.6165120000000001</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B561" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C561" t="n">
+        <v>100</v>
+      </c>
+      <c r="D561" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B561" s="2" t="n">
+      <c r="B562" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C561" t="n">
-        <v>100</v>
-      </c>
-      <c r="D561" t="n">
+      <c r="C562" t="n">
+        <v>100</v>
+      </c>
+      <c r="D562" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D562"/>
+  <dimension ref="A1:D563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7694,617 +7694,631 @@
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>86</v>
+        <v>517</v>
       </c>
       <c r="B519" s="2" t="n">
-        <v>44700</v>
+        <v>45332</v>
       </c>
       <c r="C519" t="n">
         <v>100</v>
       </c>
       <c r="D519" t="n">
-        <v>0.491565</v>
+        <v>0.608367</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B562" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C562" t="n">
+        <v>100</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B562" s="2" t="n">
+      <c r="B563" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C562" t="n">
-        <v>100</v>
-      </c>
-      <c r="D562" t="n">
+      <c r="C563" t="n">
+        <v>100</v>
+      </c>
+      <c r="D563" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D563"/>
+  <dimension ref="A1:D564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7708,617 +7708,631 @@
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>86</v>
+        <v>518</v>
       </c>
       <c r="B520" s="2" t="n">
-        <v>44700</v>
+        <v>45335</v>
       </c>
       <c r="C520" t="n">
         <v>100</v>
       </c>
       <c r="D520" t="n">
-        <v>0.491565</v>
+        <v>0.60961</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B563" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C563" t="n">
+        <v>100</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B563" s="2" t="n">
+      <c r="B564" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C563" t="n">
-        <v>100</v>
-      </c>
-      <c r="D563" t="n">
+      <c r="C564" t="n">
+        <v>100</v>
+      </c>
+      <c r="D564" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D564"/>
+  <dimension ref="A1:D565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7722,617 +7722,631 @@
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>86</v>
+        <v>519</v>
       </c>
       <c r="B521" s="2" t="n">
-        <v>44700</v>
+        <v>45336</v>
       </c>
       <c r="C521" t="n">
         <v>100</v>
       </c>
       <c r="D521" t="n">
-        <v>0.491565</v>
+        <v>0.610684</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B564" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C564" t="n">
+        <v>100</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B564" s="2" t="n">
+      <c r="B565" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C564" t="n">
-        <v>100</v>
-      </c>
-      <c r="D564" t="n">
+      <c r="C565" t="n">
+        <v>100</v>
+      </c>
+      <c r="D565" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D565"/>
+  <dimension ref="A1:D566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7736,617 +7736,631 @@
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>86</v>
+        <v>520</v>
       </c>
       <c r="B522" s="2" t="n">
-        <v>44700</v>
+        <v>45337</v>
       </c>
       <c r="C522" t="n">
         <v>100</v>
       </c>
       <c r="D522" t="n">
-        <v>0.491565</v>
+        <v>0.606995</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B565" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C565" t="n">
+        <v>100</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B565" s="2" t="n">
+      <c r="B566" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C565" t="n">
-        <v>100</v>
-      </c>
-      <c r="D565" t="n">
+      <c r="C566" t="n">
+        <v>100</v>
+      </c>
+      <c r="D566" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D566"/>
+  <dimension ref="A1:D567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7750,617 +7750,631 @@
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>86</v>
+        <v>521</v>
       </c>
       <c r="B523" s="2" t="n">
-        <v>44700</v>
+        <v>45338</v>
       </c>
       <c r="C523" t="n">
         <v>100</v>
       </c>
       <c r="D523" t="n">
-        <v>0.491565</v>
+        <v>0.610692</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B566" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C566" t="n">
+        <v>100</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B566" s="2" t="n">
+      <c r="B567" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C566" t="n">
-        <v>100</v>
-      </c>
-      <c r="D566" t="n">
+      <c r="C567" t="n">
+        <v>100</v>
+      </c>
+      <c r="D567" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D567"/>
+  <dimension ref="A1:D568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7764,617 +7764,631 @@
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>86</v>
+        <v>522</v>
       </c>
       <c r="B524" s="2" t="n">
-        <v>44700</v>
+        <v>45339</v>
       </c>
       <c r="C524" t="n">
         <v>100</v>
       </c>
       <c r="D524" t="n">
-        <v>0.491565</v>
+        <v>0.616378</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B567" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C567" t="n">
+        <v>100</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B567" s="2" t="n">
+      <c r="B568" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C567" t="n">
-        <v>100</v>
-      </c>
-      <c r="D567" t="n">
+      <c r="C568" t="n">
+        <v>100</v>
+      </c>
+      <c r="D568" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D568"/>
+  <dimension ref="A1:D569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7778,617 +7778,631 @@
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>86</v>
+        <v>523</v>
       </c>
       <c r="B525" s="2" t="n">
-        <v>44700</v>
+        <v>45342</v>
       </c>
       <c r="C525" t="n">
         <v>100</v>
       </c>
       <c r="D525" t="n">
-        <v>0.491565</v>
+        <v>0.61615</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B568" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C568" t="n">
+        <v>100</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B568" s="2" t="n">
+      <c r="B569" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C568" t="n">
-        <v>100</v>
-      </c>
-      <c r="D568" t="n">
+      <c r="C569" t="n">
+        <v>100</v>
+      </c>
+      <c r="D569" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D569"/>
+  <dimension ref="A1:D570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7792,617 +7792,631 @@
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>86</v>
+        <v>524</v>
       </c>
       <c r="B526" s="2" t="n">
-        <v>44700</v>
+        <v>45343</v>
       </c>
       <c r="C526" t="n">
         <v>100</v>
       </c>
       <c r="D526" t="n">
-        <v>0.491565</v>
+        <v>0.614349</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B569" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C569" t="n">
+        <v>100</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B569" s="2" t="n">
+      <c r="B570" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C569" t="n">
-        <v>100</v>
-      </c>
-      <c r="D569" t="n">
+      <c r="C570" t="n">
+        <v>100</v>
+      </c>
+      <c r="D570" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D570"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7806,617 +7806,631 @@
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>86</v>
+        <v>525</v>
       </c>
       <c r="B527" s="2" t="n">
-        <v>44700</v>
+        <v>45344</v>
       </c>
       <c r="C527" t="n">
         <v>100</v>
       </c>
       <c r="D527" t="n">
-        <v>0.491565</v>
+        <v>0.616053</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B570" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C570" t="n">
+        <v>100</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B570" s="2" t="n">
+      <c r="B571" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C570" t="n">
-        <v>100</v>
-      </c>
-      <c r="D570" t="n">
+      <c r="C571" t="n">
+        <v>100</v>
+      </c>
+      <c r="D571" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D571"/>
+  <dimension ref="A1:D572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7820,617 +7820,631 @@
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>86</v>
+        <v>526</v>
       </c>
       <c r="B528" s="2" t="n">
-        <v>44700</v>
+        <v>45345</v>
       </c>
       <c r="C528" t="n">
         <v>100</v>
       </c>
       <c r="D528" t="n">
-        <v>0.491565</v>
+        <v>0.61666</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B571" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C571" t="n">
+        <v>100</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B571" s="2" t="n">
+      <c r="B572" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C571" t="n">
-        <v>100</v>
-      </c>
-      <c r="D571" t="n">
+      <c r="C572" t="n">
+        <v>100</v>
+      </c>
+      <c r="D572" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D572"/>
+  <dimension ref="A1:D573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7834,617 +7834,631 @@
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>86</v>
+        <v>527</v>
       </c>
       <c r="B529" s="2" t="n">
-        <v>44700</v>
+        <v>45349</v>
       </c>
       <c r="C529" t="n">
         <v>100</v>
       </c>
       <c r="D529" t="n">
-        <v>0.491565</v>
+        <v>0.616274</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B572" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C572" t="n">
+        <v>100</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B572" s="2" t="n">
+      <c r="B573" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C572" t="n">
-        <v>100</v>
-      </c>
-      <c r="D572" t="n">
+      <c r="C573" t="n">
+        <v>100</v>
+      </c>
+      <c r="D573" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D573"/>
+  <dimension ref="A1:D574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7848,617 +7848,631 @@
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>86</v>
+        <v>528</v>
       </c>
       <c r="B530" s="2" t="n">
-        <v>44700</v>
+        <v>45350</v>
       </c>
       <c r="C530" t="n">
         <v>100</v>
       </c>
       <c r="D530" t="n">
-        <v>0.491565</v>
+        <v>0.611375</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B573" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C573" t="n">
+        <v>100</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B573" s="2" t="n">
+      <c r="B574" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C573" t="n">
-        <v>100</v>
-      </c>
-      <c r="D573" t="n">
+      <c r="C574" t="n">
+        <v>100</v>
+      </c>
+      <c r="D574" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D574"/>
+  <dimension ref="A1:D575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7862,617 +7862,631 @@
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>86</v>
+        <v>529</v>
       </c>
       <c r="B531" s="2" t="n">
-        <v>44700</v>
+        <v>45351</v>
       </c>
       <c r="C531" t="n">
         <v>100</v>
       </c>
       <c r="D531" t="n">
-        <v>0.491565</v>
+        <v>0.610629</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B574" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C574" t="n">
+        <v>100</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B574" s="2" t="n">
+      <c r="B575" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C574" t="n">
-        <v>100</v>
-      </c>
-      <c r="D574" t="n">
+      <c r="C575" t="n">
+        <v>100</v>
+      </c>
+      <c r="D575" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D575"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7876,617 +7876,631 @@
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>86</v>
+        <v>530</v>
       </c>
       <c r="B532" s="2" t="n">
-        <v>44700</v>
+        <v>45352</v>
       </c>
       <c r="C532" t="n">
         <v>100</v>
       </c>
       <c r="D532" t="n">
-        <v>0.491565</v>
+        <v>0.603203</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B575" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C575" t="n">
+        <v>100</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B575" s="2" t="n">
+      <c r="B576" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C575" t="n">
-        <v>100</v>
-      </c>
-      <c r="D575" t="n">
+      <c r="C576" t="n">
+        <v>100</v>
+      </c>
+      <c r="D576" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7890,617 +7890,631 @@
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>86</v>
+        <v>531</v>
       </c>
       <c r="B533" s="2" t="n">
-        <v>44700</v>
+        <v>45353</v>
       </c>
       <c r="C533" t="n">
         <v>100</v>
       </c>
       <c r="D533" t="n">
-        <v>0.491565</v>
+        <v>0.607271</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B576" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C576" t="n">
+        <v>100</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B576" s="2" t="n">
+      <c r="B577" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C576" t="n">
-        <v>100</v>
-      </c>
-      <c r="D576" t="n">
+      <c r="C577" t="n">
+        <v>100</v>
+      </c>
+      <c r="D577" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7904,617 +7904,631 @@
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>86</v>
+        <v>532</v>
       </c>
       <c r="B534" s="2" t="n">
-        <v>44700</v>
+        <v>45356</v>
       </c>
       <c r="C534" t="n">
         <v>100</v>
       </c>
       <c r="D534" t="n">
-        <v>0.491565</v>
+        <v>0.6089410000000001</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B577" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C577" t="n">
+        <v>100</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B577" s="2" t="n">
+      <c r="B578" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C577" t="n">
-        <v>100</v>
-      </c>
-      <c r="D577" t="n">
+      <c r="C578" t="n">
+        <v>100</v>
+      </c>
+      <c r="D578" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D578"/>
+  <dimension ref="A1:D579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7918,617 +7918,631 @@
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>86</v>
+        <v>533</v>
       </c>
       <c r="B535" s="2" t="n">
-        <v>44700</v>
+        <v>45357</v>
       </c>
       <c r="C535" t="n">
         <v>100</v>
       </c>
       <c r="D535" t="n">
-        <v>0.491565</v>
+        <v>0.606241</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B578" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C578" t="n">
+        <v>100</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B578" s="2" t="n">
+      <c r="B579" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C578" t="n">
-        <v>100</v>
-      </c>
-      <c r="D578" t="n">
+      <c r="C579" t="n">
+        <v>100</v>
+      </c>
+      <c r="D579" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D579"/>
+  <dimension ref="A1:D580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7932,617 +7932,631 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>86</v>
+        <v>534</v>
       </c>
       <c r="B536" s="2" t="n">
-        <v>44700</v>
+        <v>45358</v>
       </c>
       <c r="C536" t="n">
         <v>100</v>
       </c>
       <c r="D536" t="n">
-        <v>0.491565</v>
+        <v>0.6023149999999999</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B579" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C579" t="n">
+        <v>100</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B579" s="2" t="n">
+      <c r="B580" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C579" t="n">
-        <v>100</v>
-      </c>
-      <c r="D579" t="n">
+      <c r="C580" t="n">
+        <v>100</v>
+      </c>
+      <c r="D580" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D580"/>
+  <dimension ref="A1:D581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7946,617 +7946,631 @@
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>86</v>
+        <v>535</v>
       </c>
       <c r="B537" s="2" t="n">
-        <v>44700</v>
+        <v>45359</v>
       </c>
       <c r="C537" t="n">
         <v>100</v>
       </c>
       <c r="D537" t="n">
-        <v>0.491565</v>
+        <v>0.6093419999999999</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B580" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C580" t="n">
+        <v>100</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B580" s="2" t="n">
+      <c r="B581" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C580" t="n">
-        <v>100</v>
-      </c>
-      <c r="D580" t="n">
+      <c r="C581" t="n">
+        <v>100</v>
+      </c>
+      <c r="D581" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7960,617 +7960,631 @@
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>86</v>
+        <v>536</v>
       </c>
       <c r="B538" s="2" t="n">
-        <v>44700</v>
+        <v>45363</v>
       </c>
       <c r="C538" t="n">
         <v>100</v>
       </c>
       <c r="D538" t="n">
-        <v>0.491565</v>
+        <v>0.617548</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B581" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C581" t="n">
+        <v>100</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B581" s="2" t="n">
+      <c r="B582" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C581" t="n">
-        <v>100</v>
-      </c>
-      <c r="D581" t="n">
+      <c r="C582" t="n">
+        <v>100</v>
+      </c>
+      <c r="D582" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D582"/>
+  <dimension ref="A1:D583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7974,617 +7974,631 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>86</v>
+        <v>537</v>
       </c>
       <c r="B539" s="2" t="n">
-        <v>44700</v>
+        <v>45364</v>
       </c>
       <c r="C539" t="n">
         <v>100</v>
       </c>
       <c r="D539" t="n">
-        <v>0.491565</v>
+        <v>0.6188750000000001</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B582" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C582" t="n">
+        <v>100</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B582" s="2" t="n">
+      <c r="B583" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C582" t="n">
-        <v>100</v>
-      </c>
-      <c r="D582" t="n">
+      <c r="C583" t="n">
+        <v>100</v>
+      </c>
+      <c r="D583" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D583"/>
+  <dimension ref="A1:D584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7988,617 +7988,631 @@
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>86</v>
+        <v>538</v>
       </c>
       <c r="B540" s="2" t="n">
-        <v>44700</v>
+        <v>45365</v>
       </c>
       <c r="C540" t="n">
         <v>100</v>
       </c>
       <c r="D540" t="n">
-        <v>0.491565</v>
+        <v>0.6207699999999999</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B583" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C583" t="n">
+        <v>100</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B583" s="2" t="n">
+      <c r="B584" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C583" t="n">
-        <v>100</v>
-      </c>
-      <c r="D583" t="n">
+      <c r="C584" t="n">
+        <v>100</v>
+      </c>
+      <c r="D584" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D584"/>
+  <dimension ref="A1:D585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8002,617 +8002,631 @@
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>86</v>
+        <v>539</v>
       </c>
       <c r="B541" s="2" t="n">
-        <v>44700</v>
+        <v>45366</v>
       </c>
       <c r="C541" t="n">
         <v>100</v>
       </c>
       <c r="D541" t="n">
-        <v>0.491565</v>
+        <v>0.620797</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B584" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C584" t="n">
+        <v>100</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B584" s="2" t="n">
+      <c r="B585" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C584" t="n">
-        <v>100</v>
-      </c>
-      <c r="D584" t="n">
+      <c r="C585" t="n">
+        <v>100</v>
+      </c>
+      <c r="D585" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D585"/>
+  <dimension ref="A1:D586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8016,617 +8016,631 @@
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>86</v>
+        <v>540</v>
       </c>
       <c r="B542" s="2" t="n">
-        <v>44700</v>
+        <v>45367</v>
       </c>
       <c r="C542" t="n">
         <v>100</v>
       </c>
       <c r="D542" t="n">
-        <v>0.491565</v>
+        <v>0.618737</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B585" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C585" t="n">
+        <v>100</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B585" s="2" t="n">
+      <c r="B586" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C585" t="n">
-        <v>100</v>
-      </c>
-      <c r="D585" t="n">
+      <c r="C586" t="n">
+        <v>100</v>
+      </c>
+      <c r="D586" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D586"/>
+  <dimension ref="A1:D587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8030,617 +8030,631 @@
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>86</v>
+        <v>541</v>
       </c>
       <c r="B543" s="2" t="n">
-        <v>44700</v>
+        <v>45370</v>
       </c>
       <c r="C543" t="n">
         <v>100</v>
       </c>
       <c r="D543" t="n">
-        <v>0.491565</v>
+        <v>0.616301</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B586" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C586" t="n">
+        <v>100</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B586" s="2" t="n">
+      <c r="B587" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C586" t="n">
-        <v>100</v>
-      </c>
-      <c r="D586" t="n">
+      <c r="C587" t="n">
+        <v>100</v>
+      </c>
+      <c r="D587" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D587"/>
+  <dimension ref="A1:D588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8044,617 +8044,631 @@
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>86</v>
+        <v>542</v>
       </c>
       <c r="B544" s="2" t="n">
-        <v>44700</v>
+        <v>45371</v>
       </c>
       <c r="C544" t="n">
         <v>100</v>
       </c>
       <c r="D544" t="n">
-        <v>0.491565</v>
+        <v>0.618125</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B587" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C587" t="n">
+        <v>100</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B587" s="2" t="n">
+      <c r="B588" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C587" t="n">
-        <v>100</v>
-      </c>
-      <c r="D587" t="n">
+      <c r="C588" t="n">
+        <v>100</v>
+      </c>
+      <c r="D588" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D588"/>
+  <dimension ref="A1:D589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8058,617 +8058,631 @@
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="B545" s="2" t="n">
-        <v>44700</v>
+        <v>45372</v>
       </c>
       <c r="C545" t="n">
         <v>100</v>
       </c>
       <c r="D545" t="n">
-        <v>0.491565</v>
+        <v>0.621221</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B588" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C588" t="n">
+        <v>100</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B588" s="2" t="n">
+      <c r="B589" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C588" t="n">
-        <v>100</v>
-      </c>
-      <c r="D588" t="n">
+      <c r="C589" t="n">
+        <v>100</v>
+      </c>
+      <c r="D589" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D589"/>
+  <dimension ref="A1:D590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8072,617 +8072,631 @@
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>86</v>
+        <v>544</v>
       </c>
       <c r="B546" s="2" t="n">
-        <v>44700</v>
+        <v>45373</v>
       </c>
       <c r="C546" t="n">
         <v>100</v>
       </c>
       <c r="D546" t="n">
-        <v>0.491565</v>
+        <v>0.609626</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B589" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C589" t="n">
+        <v>100</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B589" s="2" t="n">
+      <c r="B590" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C589" t="n">
-        <v>100</v>
-      </c>
-      <c r="D589" t="n">
+      <c r="C590" t="n">
+        <v>100</v>
+      </c>
+      <c r="D590" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D590"/>
+  <dimension ref="A1:D591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8086,617 +8086,631 @@
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>86</v>
+        <v>545</v>
       </c>
       <c r="B547" s="2" t="n">
-        <v>44700</v>
+        <v>45374</v>
       </c>
       <c r="C547" t="n">
         <v>100</v>
       </c>
       <c r="D547" t="n">
-        <v>0.491565</v>
+        <v>0.611299</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B590" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C590" t="n">
+        <v>100</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B590" s="2" t="n">
+      <c r="B591" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C590" t="n">
-        <v>100</v>
-      </c>
-      <c r="D590" t="n">
+      <c r="C591" t="n">
+        <v>100</v>
+      </c>
+      <c r="D591" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D591"/>
+  <dimension ref="A1:D592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8100,617 +8100,631 @@
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="B548" s="2" t="n">
-        <v>44700</v>
+        <v>45377</v>
       </c>
       <c r="C548" t="n">
         <v>100</v>
       </c>
       <c r="D548" t="n">
-        <v>0.491565</v>
+        <v>0.612869</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B591" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C591" t="n">
+        <v>100</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B591" s="2" t="n">
+      <c r="B592" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C591" t="n">
-        <v>100</v>
-      </c>
-      <c r="D591" t="n">
+      <c r="C592" t="n">
+        <v>100</v>
+      </c>
+      <c r="D592" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D592"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8114,617 +8114,631 @@
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>86</v>
+        <v>547</v>
       </c>
       <c r="B549" s="2" t="n">
-        <v>44700</v>
+        <v>45378</v>
       </c>
       <c r="C549" t="n">
         <v>100</v>
       </c>
       <c r="D549" t="n">
-        <v>0.491565</v>
+        <v>0.61182</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B592" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C592" t="n">
+        <v>100</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B592" s="2" t="n">
+      <c r="B593" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C592" t="n">
-        <v>100</v>
-      </c>
-      <c r="D592" t="n">
+      <c r="C593" t="n">
+        <v>100</v>
+      </c>
+      <c r="D593" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8128,617 +8128,631 @@
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>86</v>
+        <v>548</v>
       </c>
       <c r="B550" s="2" t="n">
-        <v>44700</v>
+        <v>45379</v>
       </c>
       <c r="C550" t="n">
         <v>100</v>
       </c>
       <c r="D550" t="n">
-        <v>0.491565</v>
+        <v>0.6101610000000001</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B593" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C593" t="n">
+        <v>100</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B593" s="2" t="n">
+      <c r="B594" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C593" t="n">
-        <v>100</v>
-      </c>
-      <c r="D593" t="n">
+      <c r="C594" t="n">
+        <v>100</v>
+      </c>
+      <c r="D594" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8142,617 +8142,631 @@
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>86</v>
+        <v>549</v>
       </c>
       <c r="B551" s="2" t="n">
-        <v>44700</v>
+        <v>45380</v>
       </c>
       <c r="C551" t="n">
         <v>100</v>
       </c>
       <c r="D551" t="n">
-        <v>0.491565</v>
+        <v>0.609398</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B594" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C594" t="n">
+        <v>100</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B594" s="2" t="n">
+      <c r="B595" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C594" t="n">
-        <v>100</v>
-      </c>
-      <c r="D594" t="n">
+      <c r="C595" t="n">
+        <v>100</v>
+      </c>
+      <c r="D595" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D595"/>
+  <dimension ref="A1:D596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8156,617 +8156,631 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>86</v>
+        <v>550</v>
       </c>
       <c r="B552" s="2" t="n">
-        <v>44700</v>
+        <v>45381</v>
       </c>
       <c r="C552" t="n">
         <v>100</v>
       </c>
       <c r="D552" t="n">
-        <v>0.491565</v>
+        <v>0.610684</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B595" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C595" t="n">
+        <v>100</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B595" s="2" t="n">
+      <c r="B596" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C595" t="n">
-        <v>100</v>
-      </c>
-      <c r="D595" t="n">
+      <c r="C596" t="n">
+        <v>100</v>
+      </c>
+      <c r="D596" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D596"/>
+  <dimension ref="A1:D597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8170,617 +8170,631 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>86</v>
+        <v>551</v>
       </c>
       <c r="B553" s="2" t="n">
-        <v>44700</v>
+        <v>45384</v>
       </c>
       <c r="C553" t="n">
         <v>100</v>
       </c>
       <c r="D553" t="n">
-        <v>0.491565</v>
+        <v>0.6096670000000001</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B596" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C596" t="n">
+        <v>100</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B596" s="2" t="n">
+      <c r="B597" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C596" t="n">
-        <v>100</v>
-      </c>
-      <c r="D596" t="n">
+      <c r="C597" t="n">
+        <v>100</v>
+      </c>
+      <c r="D597" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D597"/>
+  <dimension ref="A1:D598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8184,617 +8184,631 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>86</v>
+        <v>552</v>
       </c>
       <c r="B554" s="2" t="n">
-        <v>44700</v>
+        <v>45385</v>
       </c>
       <c r="C554" t="n">
         <v>100</v>
       </c>
       <c r="D554" t="n">
-        <v>0.491565</v>
+        <v>0.609924</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B597" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C597" t="n">
+        <v>100</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B597" s="2" t="n">
+      <c r="B598" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C597" t="n">
-        <v>100</v>
-      </c>
-      <c r="D597" t="n">
+      <c r="C598" t="n">
+        <v>100</v>
+      </c>
+      <c r="D598" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D598"/>
+  <dimension ref="A1:D599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8198,617 +8198,631 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>86</v>
+        <v>553</v>
       </c>
       <c r="B555" s="2" t="n">
-        <v>44700</v>
+        <v>45386</v>
       </c>
       <c r="C555" t="n">
         <v>100</v>
       </c>
       <c r="D555" t="n">
-        <v>0.491565</v>
+        <v>0.609749</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B598" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C598" t="n">
+        <v>100</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B598" s="2" t="n">
+      <c r="B599" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C598" t="n">
-        <v>100</v>
-      </c>
-      <c r="D598" t="n">
+      <c r="C599" t="n">
+        <v>100</v>
+      </c>
+      <c r="D599" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D599"/>
+  <dimension ref="A1:D600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8212,617 +8212,631 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>86</v>
+        <v>554</v>
       </c>
       <c r="B556" s="2" t="n">
-        <v>44700</v>
+        <v>45387</v>
       </c>
       <c r="C556" t="n">
         <v>100</v>
       </c>
       <c r="D556" t="n">
-        <v>0.491565</v>
+        <v>0.608797</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B599" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C599" t="n">
+        <v>100</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B599" s="2" t="n">
+      <c r="B600" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C599" t="n">
-        <v>100</v>
-      </c>
-      <c r="D599" t="n">
+      <c r="C600" t="n">
+        <v>100</v>
+      </c>
+      <c r="D600" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D600"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8226,617 +8226,631 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>86</v>
+        <v>555</v>
       </c>
       <c r="B557" s="2" t="n">
-        <v>44700</v>
+        <v>45388</v>
       </c>
       <c r="C557" t="n">
         <v>100</v>
       </c>
       <c r="D557" t="n">
-        <v>0.491565</v>
+        <v>0.612348</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B600" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C600" t="n">
+        <v>100</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B600" s="2" t="n">
+      <c r="B601" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C600" t="n">
-        <v>100</v>
-      </c>
-      <c r="D600" t="n">
+      <c r="C601" t="n">
+        <v>100</v>
+      </c>
+      <c r="D601" t="n">
         <v>0.458723</v>
       </c>
     </row>

--- a/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
+++ b/LME/parser_beta/data/centrobank/Japanese_Yen.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8240,617 +8240,631 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>86</v>
+        <v>556</v>
       </c>
       <c r="B558" s="2" t="n">
-        <v>44700</v>
+        <v>45391</v>
       </c>
       <c r="C558" t="n">
         <v>100</v>
       </c>
       <c r="D558" t="n">
-        <v>0.491565</v>
+        <v>0.610009</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B559" s="2" t="n">
-        <v>44701</v>
+        <v>44700</v>
       </c>
       <c r="C559" t="n">
         <v>100</v>
       </c>
       <c r="D559" t="n">
-        <v>0.486005</v>
+        <v>0.491565</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B560" s="2" t="n">
-        <v>44702</v>
+        <v>44701</v>
       </c>
       <c r="C560" t="n">
         <v>100</v>
       </c>
       <c r="D560" t="n">
-        <v>0.460913</v>
+        <v>0.486005</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B561" s="2" t="n">
-        <v>44708</v>
+        <v>44702</v>
       </c>
       <c r="C561" t="n">
         <v>100</v>
       </c>
       <c r="D561" t="n">
-        <v>0.486739</v>
+        <v>0.460913</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B562" s="2" t="n">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="C562" t="n">
         <v>100</v>
       </c>
       <c r="D562" t="n">
-        <v>0.496752</v>
+        <v>0.486739</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B563" s="2" t="n">
-        <v>44716</v>
+        <v>44712</v>
       </c>
       <c r="C563" t="n">
         <v>100</v>
       </c>
       <c r="D563" t="n">
-        <v>0.477322</v>
+        <v>0.496752</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B564" s="2" t="n">
-        <v>44720</v>
+        <v>44716</v>
       </c>
       <c r="C564" t="n">
         <v>100</v>
       </c>
       <c r="D564" t="n">
-        <v>0.460988</v>
+        <v>0.477322</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B565" s="2" t="n">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="C565" t="n">
         <v>100</v>
       </c>
       <c r="D565" t="n">
-        <v>0.434316</v>
+        <v>0.460988</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B566" s="2" t="n">
-        <v>44727</v>
+        <v>44722</v>
       </c>
       <c r="C566" t="n">
         <v>100</v>
       </c>
       <c r="D566" t="n">
-        <v>0.425683</v>
+        <v>0.434316</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B567" s="2" t="n">
-        <v>44737</v>
+        <v>44727</v>
       </c>
       <c r="C567" t="n">
         <v>100</v>
       </c>
       <c r="D567" t="n">
-        <v>0.394433</v>
+        <v>0.425683</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B568" s="2" t="n">
-        <v>44742</v>
+        <v>44737</v>
       </c>
       <c r="C568" t="n">
         <v>100</v>
       </c>
       <c r="D568" t="n">
-        <v>0.375858</v>
+        <v>0.394433</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B569" s="2" t="n">
-        <v>44747</v>
+        <v>44742</v>
       </c>
       <c r="C569" t="n">
         <v>100</v>
       </c>
       <c r="D569" t="n">
-        <v>0.408224</v>
+        <v>0.375858</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B570" s="2" t="n">
-        <v>44750</v>
+        <v>44747</v>
       </c>
       <c r="C570" t="n">
         <v>100</v>
       </c>
       <c r="D570" t="n">
-        <v>0.465311</v>
+        <v>0.408224</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B571" s="2" t="n">
-        <v>44754</v>
+        <v>44750</v>
       </c>
       <c r="C571" t="n">
         <v>100</v>
       </c>
       <c r="D571" t="n">
-        <v>0.449282</v>
+        <v>0.465311</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B572" s="2" t="n">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="C572" t="n">
         <v>100</v>
       </c>
       <c r="D572" t="n">
-        <v>0.426868</v>
+        <v>0.449282</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B573" s="2" t="n">
-        <v>44764</v>
+        <v>44756</v>
       </c>
       <c r="C573" t="n">
         <v>100</v>
       </c>
       <c r="D573" t="n">
-        <v>0.407933</v>
+        <v>0.426868</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B574" s="2" t="n">
-        <v>44775</v>
+        <v>44764</v>
       </c>
       <c r="C574" t="n">
         <v>100</v>
       </c>
       <c r="D574" t="n">
-        <v>0.4683059999999999</v>
+        <v>0.407933</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B575" s="2" t="n">
-        <v>44776</v>
+        <v>44775</v>
       </c>
       <c r="C575" t="n">
         <v>100</v>
       </c>
       <c r="D575" t="n">
-        <v>0.459759</v>
+        <v>0.4683059999999999</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B576" s="2" t="n">
-        <v>44785</v>
+        <v>44776</v>
       </c>
       <c r="C576" t="n">
         <v>100</v>
       </c>
       <c r="D576" t="n">
-        <v>0.448394</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B577" s="2" t="n">
-        <v>44797</v>
+        <v>44785</v>
       </c>
       <c r="C577" t="n">
         <v>100</v>
       </c>
       <c r="D577" t="n">
-        <v>0.436308</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B578" s="2" t="n">
-        <v>44798</v>
+        <v>44797</v>
       </c>
       <c r="C578" t="n">
         <v>100</v>
       </c>
       <c r="D578" t="n">
-        <v>0.438257</v>
+        <v>0.436308</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B579" s="2" t="n">
-        <v>44799</v>
+        <v>44798</v>
       </c>
       <c r="C579" t="n">
         <v>100</v>
       </c>
       <c r="D579" t="n">
-        <v>0.436468</v>
+        <v>0.438257</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B580" s="2" t="n">
-        <v>44806</v>
+        <v>44799</v>
       </c>
       <c r="C580" t="n">
         <v>100</v>
       </c>
       <c r="D580" t="n">
-        <v>0.431806</v>
+        <v>0.436468</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B581" s="2" t="n">
-        <v>44812</v>
+        <v>44806</v>
       </c>
       <c r="C581" t="n">
         <v>100</v>
       </c>
       <c r="D581" t="n">
-        <v>0.424517</v>
+        <v>0.431806</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B582" s="2" t="n">
-        <v>44824</v>
+        <v>44812</v>
       </c>
       <c r="C582" t="n">
         <v>100</v>
       </c>
       <c r="D582" t="n">
-        <v>0.4206839999999999</v>
+        <v>0.424517</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B583" s="2" t="n">
-        <v>44826</v>
+        <v>44824</v>
       </c>
       <c r="C583" t="n">
         <v>100</v>
       </c>
       <c r="D583" t="n">
-        <v>0.42358</v>
+        <v>0.4206839999999999</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B584" s="2" t="n">
-        <v>44832</v>
+        <v>44826</v>
       </c>
       <c r="C584" t="n">
         <v>100</v>
       </c>
       <c r="D584" t="n">
-        <v>0.402739</v>
+        <v>0.42358</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B585" s="2" t="n">
-        <v>44835</v>
+        <v>44832</v>
       </c>
       <c r="C585" t="n">
         <v>100</v>
       </c>
       <c r="D585" t="n">
-        <v>0.382055</v>
+        <v>0.402739</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B586" s="2" t="n">
-        <v>44839</v>
+        <v>44835</v>
       </c>
       <c r="C586" t="n">
         <v>100</v>
       </c>
       <c r="D586" t="n">
-        <v>0.406298</v>
+        <v>0.382055</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B587" s="2" t="n">
-        <v>44840</v>
+        <v>44839</v>
       </c>
       <c r="C587" t="n">
         <v>100</v>
       </c>
       <c r="D587" t="n">
-        <v>0.41273</v>
+        <v>0.406298</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B588" s="2" t="n">
-        <v>44841</v>
+        <v>44840</v>
       </c>
       <c r="C588" t="n">
         <v>100</v>
       </c>
       <c r="D588" t="n">
-        <v>0.416748</v>
+        <v>0.41273</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B589" s="2" t="n">
-        <v>44842</v>
+        <v>44841</v>
       </c>
       <c r="C589" t="n">
         <v>100</v>
       </c>
       <c r="D589" t="n">
-        <v>0.422338</v>
+        <v>0.416748</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B590" s="2" t="n">
-        <v>44846</v>
+        <v>44842</v>
       </c>
       <c r="C590" t="n">
         <v>100</v>
       </c>
       <c r="D590" t="n">
-        <v>0.4370000000000001</v>
+        <v>0.422338</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B591" s="2" t="n">
-        <v>44848</v>
+        <v>44846</v>
       </c>
       <c r="C591" t="n">
         <v>100</v>
       </c>
       <c r="D591" t="n">
-        <v>0.432358</v>
+        <v>0.4370000000000001</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B592" s="2" t="n">
-        <v>44868</v>
+        <v>44848</v>
       </c>
       <c r="C592" t="n">
         <v>100</v>
       </c>
       <c r="D592" t="n">
-        <v>0.417633</v>
+        <v>0.432358</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B593" s="2" t="n">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="C593" t="n">
         <v>100</v>
       </c>
       <c r="D593" t="n">
-        <v>0.4227300000000001</v>
+        <v>0.417633</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B594" s="2" t="n">
-        <v>44882</v>
+        <v>44877</v>
       </c>
       <c r="C594" t="n">
         <v>100</v>
       </c>
       <c r="D594" t="n">
-        <v>0.432512</v>
+        <v>0.4227300000000001</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B595" s="2" t="n">
-        <v>44887</v>
+        <v>44882</v>
       </c>
       <c r="C595" t="n">
         <v>100</v>
       </c>
       <c r="D595" t="n">
-        <v>0.432945</v>
+        <v>0.432512</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B596" s="2" t="n">
-        <v>44888</v>
+        <v>44887</v>
       </c>
       <c r="C596" t="n">
         <v>100</v>
       </c>
       <c r="D596" t="n">
-        <v>0.427009</v>
+        <v>0.432945</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B597" s="2" t="n">
-        <v>44890</v>
+        <v>44888</v>
       </c>
       <c r="C597" t="n">
         <v>100</v>
       </c>
       <c r="D597" t="n">
-        <v>0.434592</v>
+        <v>0.427009</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B598" s="2" t="n">
-        <v>44891</v>
+        <v>44890</v>
       </c>
       <c r="C598" t="n">
         <v>100</v>
       </c>
       <c r="D598" t="n">
-        <v>0.435012</v>
+        <v>0.434592</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B599" s="2" t="n">
-        <v>44894</v>
+        <v>44891</v>
       </c>
       <c r="C599" t="n">
         <v>100</v>
       </c>
       <c r="D599" t="n">
-        <v>0.436876</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B600" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="C600" t="n">
         <v>100</v>
       </c>
       <c r="D600" t="n">
-        <v>0.448792</v>
+        <v>0.436876</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B601" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="C601" t="n">
+        <v>100</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.448792</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="B601" s="2" t="n">
+      <c r="B602" s="2" t="n">
         <v>44909</v>
       </c>
-      <c r="C601" t="n">
-        <v>100</v>
-      </c>
-      <c r="D601" t="n">
+      <c r="C602" t="n">
+        <v>100</v>
+      </c>
+      <c r="D602" t="n">
         <v>0.458723</v>
       </c>
     </row>
